--- a/outlook_contact.xlsx
+++ b/outlook_contact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaus\PycharmProjects\Client-Auto-Outreach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5D9C34-0521-4FB8-AFEA-0CB0A80494F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE8EB02-7415-451A-8F61-92C1887FE5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>to</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>cctest@gmail.com</t>
+  </si>
+  <si>
+    <t>cc2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,9 +402,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{90919BE3-7E35-494F-AD33-B412B25BEE95}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{3B788734-E27C-4824-89FF-795C37A1B058}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{C3073436-B3B5-46B2-A4CB-4D560EE77CC0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
